--- a/data/Combarbalá.xlsx
+++ b/data/Combarbalá.xlsx
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">

--- a/data/Combarbalá.xlsx
+++ b/data/Combarbalá.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regularización Área Explotación Cantera Proyecto Embalse Valle Hermoso</t>
+          <t>Prospección Minera Los 2 Amigos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Consorcio Valle Hermoso S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA MANUELITO MINERALS</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1607</v>
+        <v>2000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>18/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151844359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156504105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Solar Las Piedras</t>
+          <t>Regularización Área Explotación Cantera Proyecto Embalse Valle Hermoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Blue Solar Cuatro SpA</t>
+          <t>Consorcio Valle Hermoso S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9450</v>
+        <v>1607</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/06/2020</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146942937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151844359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Solar Las Piedras</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Blue Solar Cuatro SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25000</v>
+        <v>9450</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/06/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146942937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Combarbalá</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fontus Prime Solar SpA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/11/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144868885&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>16/10/2019</t>
+          <t>19/11/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144494212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144868885&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tranques Huasco 1 y Huasco 2</t>
+          <t>Parque Solar Fotovoltaico Combarbalá</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AFRUVA S.A.</t>
+          <t>Fontus Prime Solar SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>609</v>
+        <v>12000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/01/2017</t>
+          <t>16/10/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132073219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144494212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tranques La Totora y El Llano</t>
+          <t>Tranques Huasco 1 y Huasco 2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/10/2016</t>
+          <t>20/01/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131840755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132073219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PROYECTO PV LILEN</t>
+          <t>Tranques La Totora y El Llano</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PV Lilen SpA</t>
+          <t>AFRUVA S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>140000</v>
+        <v>609</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/07/2016</t>
+          <t>21/10/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131516568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131840755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S/E Seccionadora Lilén 110/23 kV</t>
+          <t>PROYECTO PV LILEN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>PV Lilen SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5850</v>
+        <v>140000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/06/2016</t>
+          <t>22/07/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131503893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131516568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tranques La Totora y El Llano</t>
+          <t>S/E Seccionadora Lilén 110/23 kV</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AFRUVA S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>609</v>
+        <v>5850</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131430627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131503893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROYECTO PV LILEN</t>
+          <t>Tranques La Totora y El Llano</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PV Lilen SpA</t>
+          <t>AFRUVA S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>140000</v>
+        <v>609</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/03/2016</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131430627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PV Lilen</t>
+          <t>PROYECTO PV LILEN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,21 +1019,21 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/11/2015</t>
+          <t>23/03/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130878055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto Central de Respaldo Combarbalá - 75 MW</t>
+          <t>PV Lilen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PRIME ENERGÍA QUICKSTART SPA</t>
+          <t>PV Lilen SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>38000</v>
+        <v>150000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130898820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130878055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tranques La Totora y El Llano</t>
+          <t>Proyecto Central de Respaldo Combarbalá - 75 MW</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AFRUVA S.A.</t>
+          <t>PRIME ENERGÍA QUICKSTART SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>609</v>
+        <v>38000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>20/11/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130895456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130898820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica La Tapina</t>
+          <t>Tranques La Totora y El Llano</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PSF La Tapina S.A.</t>
+          <t>AFRUVA S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>140000</v>
+        <v>609</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/10/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130846498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130895456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PV Lilen</t>
+          <t>Planta Solar Fotovoltaica La Tapina</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,11 +1207,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PV Lilen SpA</t>
+          <t>PSF La Tapina S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1220,12 +1220,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130843136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130846498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tranques La Totora y El Llano</t>
+          <t>PV Lilen</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AFRUVA S.A.</t>
+          <t>PV Lilen SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>609</v>
+        <v>150000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05/10/2015</t>
+          <t>22/10/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130807962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130843136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica La Tapina</t>
+          <t>Tranques La Totora y El Llano</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PSF La Tapina S.A.</t>
+          <t>AFRUVA S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>140000</v>
+        <v>609</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/06/2015</t>
+          <t>05/10/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130807962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>22/06/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130447606&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130398173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130447606&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Planta Solar Fotovoltaica La Tapina</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>PSF La Tapina S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130398173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica La Tapina</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PSF La Tapina S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>110000</v>
+        <v>5000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21/07/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129660674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>17/07/2014</t>
+          <t>21/07/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129623709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129660674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Planta Solar Fotovoltaica La Tapina</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>PSF La Tapina S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>110000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>17/07/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129623709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica El Salitral</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PSF La Tapina S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128509540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Planta Solar Fotovoltaica El Salitral</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>PSF La Tapina S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2050</v>
+        <v>40000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128509540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Prospección Llahuín</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Minera Llahuin S.C.M.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3500</v>
+        <v>2050</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>27/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8294453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/06/2013</t>
+          <t>27/06/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8294453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Prospección Llahuín</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Minera Llahuin S.C.M.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>12/06/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2500</v>
+        <v>2050</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Regularización Tranque Quebrada La Paciencia</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Agricola El Porvenir S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>270</v>
+        <v>2475</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>26/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7996553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Regularización Tranque Quebrada La Paciencia</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Agricola El Porvenir S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2475</v>
+        <v>270</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>26/03/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7996553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tranque Quebrada La Paciencia</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Agricola El Porvenir S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>270</v>
+        <v>2475</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/03/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7946277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Tranque Quebrada La Paciencia</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Agricola El Porvenir S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2450</v>
+        <v>270</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>08/03/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7946277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Regularización y Mejoramiento, Tranque El Manzano</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Porvenir S. A.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1055</v>
+        <v>2450</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14/06/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6959237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Regularización y Mejoramiento, Tranque El Manzano</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Sociedad Agrícola El Porvenir S. A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>1055</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>14/06/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6959237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Comuna de Combarbalá</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Combarbalá</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>660</v>
+        <v>100</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>30/06/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5747513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Taller de Reciclaje de Baterías Combarbalá</t>
+          <t>Plan de Cierre Vertedero Comuna de Combarbalá</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Minera Luis Marin Fernandez EIRL</t>
+          <t>Ilustre Municipalidad de Combarbalá</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>80</v>
+        <v>660</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>17/06/2011</t>
+          <t>30/06/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5637417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5747513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Taller de Reciclaje de Baterías Combarbalá</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Minera Luis Marin Fernandez EIRL</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>17/06/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5637417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,40 +2824,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Embalse Valle Hermoso</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CONSORCIO VALLE HERMOSO S.A</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>85400</v>
+        <v>12000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21/01/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5232168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,30 +2872,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Embalse Valle Hermoso</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CONSORCIO VALLE HERMOSO S.A</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1750</v>
+        <v>85400</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>21/01/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5232168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4050</v>
+        <v>1750</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>4050</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Tranque el Manzano (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,12 +3266,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Porvenir S. A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>23/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4170386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Ampliación y Mejoramiento Tranque el Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Agrícola El Porvenir S. A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/11/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4170386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal de la Provincia del Limari (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>14/08/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3966676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Plan Regulador Intercomunal de la Provincia del Limari (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>14/08/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3966676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE DE ACIDO SULFURICO ENTRE LAS REGIONES I Y V (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>28/11/2008</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3267112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>PROYECTO TRANSPORTE DE ACIDO SULFURICO ENTRE LAS REGIONES I Y V (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>28/11/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3267112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PROYECTO EXPLOTACION MINA TERMAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sociedad Minera Termas</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18/02/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2719488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE COMBARBALA (e-seia)</t>
+          <t>PROYECTO EXPLOTACION MINA TERMAS (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Combarbalá</t>
+          <t>Sociedad Minera Termas</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>13/02/2008</t>
+          <t>18/02/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2719488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROYECTO EXPLOTACION MINA TERMAS (e-seia)</t>
+          <t>PLAN REGULADOR DE COMBARBALA (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ramón Zuleta Vitali</t>
+          <t>Ilustre Municipalidad de Combarbalá</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>25/01/2008</t>
+          <t>13/02/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>PROYECTO EXPLOTACION MINA TERMAS (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ramón Zuleta Vitali</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>25/01/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Embalse Las Tinajas (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Agroindustrial Las Tinajas</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Embalse Las Tinajas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Agroindustrial Las Tinajas</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,20 +4850,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Embalse La Higuera (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Agricola Fundo Centinela</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Embalse La Higuera (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,20 +4946,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Agricola Fundo Centinela</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Discotheque Combarbalá (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,20 +4994,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Angel Antonio Ugalde Flores</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>05/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=55050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado con Planta de Tratamiento de Aguas Servidas y Mejoramiento del Suministro de Agua Potable de la localidad de El Huacho Comuna de Combarbala IV Región</t>
+          <t>Discotheque Combarbalá (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Combarbalá</t>
+          <t>Angel Antonio Ugalde Flores</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>06/08/2002</t>
+          <t>05/03/2003</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=55050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado con Planta de Tratamiento de Aguas Servidas de la Localidad de Manquehua Comuna de Combarbalá IV Región</t>
+          <t>Diseño de Alcantarillado con Planta de Tratamiento de Aguas Servidas y Mejoramiento del Suministro de Agua Potable de la localidad de El Huacho Comuna de Combarbala IV Región</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado con Planta de Tratamiento de Aguas Servidas y Mejoramiento del Suministro de Agua Potable de la Localidad de El Sauce Comuna de Combarbalá IV Región</t>
+          <t>Diseño de Alcantarillado con Planta de Tratamiento de Aguas Servidas de la Localidad de Manquehua Comuna de Combarbalá IV Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Construcción de Alcantarillado y Saneamiento de las Aguas Servidas de La Ligua de Cogotí</t>
+          <t>Diseño de Alcantarillado con Planta de Tratamiento de Aguas Servidas y Mejoramiento del Suministro de Agua Potable de la Localidad de El Sauce Comuna de Combarbalá IV Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5195,21 +5195,21 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>24/01/2002</t>
+          <t>06/08/2002</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción de Alcantarillado y Saneamiento de las Aguas Servidas de La Ligua de Cogotí</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ilustre Municipalidad de Combarbalá</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>24/01/2002</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado de la Localidad de La Isla-Comuna de Combarbalá</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Combarbalá</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4368&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Construcción del Barrio Artesanal de Combarbalá</t>
+          <t>Sistema de Alcantarillado de la Localidad de La Isla-Comuna de Combarbalá</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Coquimbo</t>
+          <t>Ilustre Municipalidad de Combarbalá</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4368&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cultivo de la Langosta de Aguas Dulce Australiana</t>
+          <t>Construcción del Barrio Artesanal de Combarbalá</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Nacientes del Cogotí</t>
+          <t>Gobierno Regional de Coquimbo</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>23/03/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,43 +5416,91 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>Cultivo de la Langosta de Aguas Dulce Australiana</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Sociedad Agrícola Nacientes del Cogotí</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>100</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>23/03/2001</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Combarbalá</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
           <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
-      <c r="F106" t="n">
+      <c r="F107" t="n">
         <v>110</v>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>14/02/2000</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>Combarbalá</t>
         </is>

--- a/data/Combarbalá.xlsx
+++ b/data/Combarbalá.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Combarbalá.xlsx
+++ b/data/Combarbalá.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fontus Prime Solar SpA</t>
+          <t>Don Esteban SpA</t>
         </is>
       </c>
       <c r="F7" t="n">

--- a/data/Combarbalá.xlsx
+++ b/data/Combarbalá.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Combarbalá.xlsx
+++ b/data/Combarbalá.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prospección Minera Los 2 Amigos</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA MANUELITO MINERALS</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2000</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/07/2022</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156504105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regularización Área Explotación Cantera Proyecto Embalse Valle Hermoso</t>
+          <t>Prospección Minera Los 2 Amigos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Consorcio Valle Hermoso S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA MANUELITO MINERALS</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1607</v>
+        <v>2000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151844359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156504105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Solar Las Piedras</t>
+          <t>Regularización Área Explotación Cantera Proyecto Embalse Valle Hermoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Blue Solar Cuatro SpA</t>
+          <t>Consorcio Valle Hermoso S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9450</v>
+        <v>1607</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/06/2020</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146942937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151844359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Solar Las Piedras</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Blue Solar Cuatro SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25000</v>
+        <v>9450</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/06/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146942937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Combarbalá</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Don Esteban SpA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/11/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144868885&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fontus Prime Solar SpA</t>
+          <t>Don Esteban SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16/10/2019</t>
+          <t>19/11/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144494212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144868885&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tranques Huasco 1 y Huasco 2</t>
+          <t>Parque Solar Fotovoltaico Combarbalá</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AFRUVA S.A.</t>
+          <t>Fontus Prime Solar SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>609</v>
+        <v>12000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/01/2017</t>
+          <t>16/10/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132073219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144494212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tranques La Totora y El Llano</t>
+          <t>Tranques Huasco 1 y Huasco 2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/10/2016</t>
+          <t>20/01/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131840755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132073219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PROYECTO PV LILEN</t>
+          <t>Tranques La Totora y El Llano</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PV Lilen SpA</t>
+          <t>AFRUVA S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>140000</v>
+        <v>609</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/07/2016</t>
+          <t>21/10/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131516568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131840755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S/E Seccionadora Lilén 110/23 kV</t>
+          <t>PROYECTO PV LILEN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>PV Lilen SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5850</v>
+        <v>140000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/06/2016</t>
+          <t>22/07/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131503893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131516568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tranques La Totora y El Llano</t>
+          <t>S/E Seccionadora Lilén 110/23 kV</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AFRUVA S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>609</v>
+        <v>5850</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>22/06/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131430627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131503893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROYECTO PV LILEN</t>
+          <t>Tranques La Totora y El Llano</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PV Lilen SpA</t>
+          <t>AFRUVA S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>140000</v>
+        <v>609</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/03/2016</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131430627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PV Lilen</t>
+          <t>PROYECTO PV LILEN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,21 +1067,21 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/11/2015</t>
+          <t>23/03/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130878055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto Central de Respaldo Combarbalá - 75 MW</t>
+          <t>PV Lilen</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PRIME ENERGÍA QUICKSTART SPA</t>
+          <t>PV Lilen SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>38000</v>
+        <v>150000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130898820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130878055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tranques La Totora y El Llano</t>
+          <t>Proyecto Central de Respaldo Combarbalá - 75 MW</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AFRUVA S.A.</t>
+          <t>PRIME ENERGÍA QUICKSTART SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>609</v>
+        <v>38000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>20/11/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130895456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130898820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica La Tapina</t>
+          <t>Tranques La Totora y El Llano</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PSF La Tapina S.A.</t>
+          <t>AFRUVA S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>140000</v>
+        <v>609</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/10/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130846498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130895456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PV Lilen</t>
+          <t>Planta Solar Fotovoltaica La Tapina</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,11 +1255,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PV Lilen SpA</t>
+          <t>PSF La Tapina S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1268,12 +1268,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130843136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130846498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tranques La Totora y El Llano</t>
+          <t>PV Lilen</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AFRUVA S.A.</t>
+          <t>PV Lilen SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>609</v>
+        <v>150000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05/10/2015</t>
+          <t>22/10/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130807962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130843136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica La Tapina</t>
+          <t>Tranques La Totora y El Llano</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PSF La Tapina S.A.</t>
+          <t>AFRUVA S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>140000</v>
+        <v>609</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/06/2015</t>
+          <t>05/10/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130807962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>22/06/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130447606&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130398173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130447606&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Planta Solar Fotovoltaica La Tapina</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>PSF La Tapina S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130398173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica La Tapina</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PSF La Tapina S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>110000</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/07/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129660674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17/07/2014</t>
+          <t>21/07/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129623709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129660674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Planta Solar Fotovoltaica La Tapina</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>PSF La Tapina S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>110000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>17/07/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129623709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica El Salitral</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PSF La Tapina S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128509540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Planta Solar Fotovoltaica El Salitral</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>PSF La Tapina S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2050</v>
+        <v>40000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128509540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Prospección Llahuín</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Minera Llahuin S.C.M.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3500</v>
+        <v>2050</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>27/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8294453&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12/06/2013</t>
+          <t>27/06/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8294453&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Prospección Llahuín</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Minera Llahuin S.C.M.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>12/06/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2500</v>
+        <v>2050</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Regularización Tranque Quebrada La Paciencia</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Agricola El Porvenir S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>270</v>
+        <v>2475</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>26/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7996553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Regularización Tranque Quebrada La Paciencia</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Agricola El Porvenir S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2475</v>
+        <v>270</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>26/03/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7996553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tranque Quebrada La Paciencia</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Agricola El Porvenir S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>270</v>
+        <v>2475</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/03/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7946277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Tranque Quebrada La Paciencia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Agricola El Porvenir S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2450</v>
+        <v>270</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>08/03/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7946277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Regularización y Mejoramiento, Tranque El Manzano</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Porvenir S. A.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1055</v>
+        <v>2450</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14/06/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6959237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Regularización y Mejoramiento, Tranque El Manzano</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Sociedad Agrícola El Porvenir S. A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>1055</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>14/06/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6959237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Comuna de Combarbalá</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Combarbalá</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>660</v>
+        <v>100</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30/06/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5747513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Taller de Reciclaje de Baterías Combarbalá</t>
+          <t>Plan de Cierre Vertedero Comuna de Combarbalá</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Minera Luis Marin Fernandez EIRL</t>
+          <t>Ilustre Municipalidad de Combarbalá</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>80</v>
+        <v>660</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17/06/2011</t>
+          <t>30/06/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5637417&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5747513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Taller de Reciclaje de Baterías Combarbalá</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Minera Luis Marin Fernandez EIRL</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>17/06/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5637417&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,40 +2872,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Embalse Valle Hermoso</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CONSORCIO VALLE HERMOSO S.A</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>85400</v>
+        <v>12000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/01/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5232168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,30 +2920,30 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Embalse Valle Hermoso</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CONSORCIO VALLE HERMOSO S.A</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1750</v>
+        <v>85400</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>21/01/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5232168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4050</v>
+        <v>1750</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2000</v>
+        <v>4050</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Tranque el Manzano (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Porvenir S. A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>23/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4170386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Ampliación y Mejoramiento Tranque el Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Agrícola El Porvenir S. A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/11/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4170386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal de la Provincia del Limari (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>14/08/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3966676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Plan Regulador Intercomunal de la Provincia del Limari (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>14/08/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3966676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE DE ACIDO SULFURICO ENTRE LAS REGIONES I Y V (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>28/11/2008</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3267112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>PROYECTO TRANSPORTE DE ACIDO SULFURICO ENTRE LAS REGIONES I Y V (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>28/11/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3267112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PROYECTO EXPLOTACION MINA TERMAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sociedad Minera Termas</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18/02/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2719488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE COMBARBALA (e-seia)</t>
+          <t>PROYECTO EXPLOTACION MINA TERMAS (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Combarbalá</t>
+          <t>Sociedad Minera Termas</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>13/02/2008</t>
+          <t>18/02/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2719488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROYECTO EXPLOTACION MINA TERMAS (e-seia)</t>
+          <t>PLAN REGULADOR DE COMBARBALA (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ramón Zuleta Vitali</t>
+          <t>Ilustre Municipalidad de Combarbalá</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>25/01/2008</t>
+          <t>13/02/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>PROYECTO EXPLOTACION MINA TERMAS (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ramón Zuleta Vitali</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>25/01/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Embalse Las Tinajas (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Agroindustrial Las Tinajas</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Embalse Las Tinajas (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Agroindustrial Las Tinajas</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,20 +4898,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Embalse La Higuera (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Agricola Fundo Centinela</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Embalse La Higuera (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,20 +4994,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Agricola Fundo Centinela</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Discotheque Combarbalá (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Angel Antonio Ugalde Flores</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>05/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=55050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado con Planta de Tratamiento de Aguas Servidas y Mejoramiento del Suministro de Agua Potable de la localidad de El Huacho Comuna de Combarbala IV Región</t>
+          <t>Discotheque Combarbalá (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Combarbalá</t>
+          <t>Angel Antonio Ugalde Flores</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>06/08/2002</t>
+          <t>05/03/2003</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=55050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado con Planta de Tratamiento de Aguas Servidas de la Localidad de Manquehua Comuna de Combarbalá IV Región</t>
+          <t>Diseño de Alcantarillado con Planta de Tratamiento de Aguas Servidas y Mejoramiento del Suministro de Agua Potable de la localidad de El Huacho Comuna de Combarbala IV Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado con Planta de Tratamiento de Aguas Servidas y Mejoramiento del Suministro de Agua Potable de la Localidad de El Sauce Comuna de Combarbalá IV Región</t>
+          <t>Diseño de Alcantarillado con Planta de Tratamiento de Aguas Servidas de la Localidad de Manquehua Comuna de Combarbalá IV Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5195,7 +5195,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construcción de Alcantarillado y Saneamiento de las Aguas Servidas de La Ligua de Cogotí</t>
+          <t>Diseño de Alcantarillado con Planta de Tratamiento de Aguas Servidas y Mejoramiento del Suministro de Agua Potable de la Localidad de El Sauce Comuna de Combarbalá IV Región</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,21 +5243,21 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>24/01/2002</t>
+          <t>06/08/2002</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción de Alcantarillado y Saneamiento de las Aguas Servidas de La Ligua de Cogotí</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ilustre Municipalidad de Combarbalá</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>24/01/2002</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado de la Localidad de La Isla-Comuna de Combarbalá</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,12 +5330,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Combarbalá</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4368&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Construcción del Barrio Artesanal de Combarbalá</t>
+          <t>Sistema de Alcantarillado de la Localidad de La Isla-Comuna de Combarbalá</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Coquimbo</t>
+          <t>Ilustre Municipalidad de Combarbalá</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4368&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cultivo de la Langosta de Aguas Dulce Australiana</t>
+          <t>Construcción del Barrio Artesanal de Combarbalá</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Nacientes del Cogotí</t>
+          <t>Gobierno Regional de Coquimbo</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>23/03/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,43 +5464,91 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>Cultivo de la Langosta de Aguas Dulce Australiana</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Sociedad Agrícola Nacientes del Cogotí</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>100</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>23/03/2001</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Combarbalá</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
-      <c r="F107" t="n">
+      <c r="F108" t="n">
         <v>110</v>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>14/02/2000</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>Combarbalá</t>
         </is>

--- a/data/Combarbalá.xlsx
+++ b/data/Combarbalá.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
